--- a/docs/utils.xlsx
+++ b/docs/utils.xlsx
@@ -26,7 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Sum</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34,7 +38,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,13 +46,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,9 +88,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,15 +373,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.183471207439936</v>
       </c>
@@ -367,25 +394,43 @@
       <c r="D1">
         <v>9.3974932319039195E-2</v>
       </c>
-      <c r="F1">
+      <c r="E1">
+        <v>0.15436217976206501</v>
+      </c>
+      <c r="G1">
         <v>-0.21451947877737501</v>
       </c>
-      <c r="G1">
-        <f>IF(F1&lt;0,0,F1)</f>
-        <v>0</v>
-      </c>
-      <c r="I1">
+      <c r="H1">
+        <f>IF(G1&lt;0,0,G1)</f>
+        <v>0</v>
+      </c>
+      <c r="J1">
         <v>4682</v>
       </c>
-      <c r="J1">
-        <f>IF(AND(I1&gt;500,I1&lt;2001),I1/10000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L1">
+      <c r="K1">
+        <f>IF(AND(J1&gt;500,J1&lt;2001),J1/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M1">
         <v>0.155</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q1" s="3">
+        <v>0.15436217976206501</v>
+      </c>
+      <c r="R1" s="3">
+        <v>0</v>
+      </c>
+      <c r="S1" s="3">
+        <v>0</v>
+      </c>
+      <c r="T1" s="3">
+        <v>0</v>
+      </c>
+      <c r="U1" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.16741561146582601</v>
       </c>
@@ -398,25 +443,43 @@
       <c r="D2">
         <v>9.8010645872811095E-2</v>
       </c>
-      <c r="F2">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>-0.12973865078874899</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G22" si="0">IF(F2&lt;0,0,F2)</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="H2">
+        <f t="shared" ref="H2:H22" si="0">IF(G2&lt;0,0,G2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>2484</v>
       </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J22" si="1">IF(AND(I2&gt;500,I2&lt;2001),I2/10000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="K2">
+        <f t="shared" ref="K2:K22" si="1">IF(AND(J2&gt;500,J2&lt;2001),J2/10000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.21385422731104001</v>
       </c>
@@ -429,25 +492,43 @@
       <c r="D3">
         <v>1.8854584150354799E-2</v>
       </c>
-      <c r="F3">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>4.9905073086631203E-2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f t="shared" si="0"/>
         <v>4.9905073086631203E-2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1149</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <f t="shared" si="1"/>
         <v>0.1149</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>6.3E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.16174103109447699</v>
       </c>
@@ -460,25 +541,43 @@
       <c r="D4">
         <v>2.7506524791226301E-2</v>
       </c>
-      <c r="F4">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0.16579269613530101</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>0.16579269613530101</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>6364</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>6.3E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.17941370500120801</v>
       </c>
@@ -491,25 +590,43 @@
       <c r="D5">
         <v>0.10839139707204801</v>
       </c>
-      <c r="F5">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>6.4768934671852393E-2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>6.4768934671852393E-2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5056</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>6.6000000000000003E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.126223739666767</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.12336153444004699</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.116526223997275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.12855911686486801</v>
       </c>
@@ -522,25 +639,43 @@
       <c r="D6">
         <v>3.9276487495457701E-2</v>
       </c>
-      <c r="F6">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0.110242461726742</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>0.110242461726742</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2383</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.205308960171418</v>
       </c>
@@ -553,25 +688,43 @@
       <c r="D7">
         <v>0.23853974604971101</v>
       </c>
-      <c r="F7">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>-7.2518190807422901E-3</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>4134</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.21944243829937399</v>
       </c>
@@ -584,25 +737,43 @@
       <c r="D8">
         <v>0.20120143737482099</v>
       </c>
-      <c r="F8">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>-0.208527001837846</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>4407</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.198132978555389</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0.13661337299155701</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.13661337299155701</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.13421852426914499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.17836809639165499</v>
       </c>
@@ -615,25 +786,43 @@
       <c r="D9">
         <v>0.21895628940114301</v>
       </c>
-      <c r="F9">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>8.2173347327608004E-2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>8.2173347327608004E-2</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2365</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.121</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.230910405285603</v>
       </c>
@@ -646,26 +835,44 @@
       <c r="D10">
         <v>3.4354133047307403E-2</v>
       </c>
-      <c r="F10">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>0.12576177220009699</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>0.12576177220009699</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>4001</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10">
-        <f>SUM(L1:L9)</f>
+      <c r="M10">
+        <f>SUM(M1:M9)</f>
         <v>1.0009999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.13652234173554301</v>
       </c>
@@ -678,22 +885,40 @@
       <c r="D11">
         <v>6.4410200511879998E-2</v>
       </c>
-      <c r="F11">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>0.24921208827385699</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>0.24921208827385699</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>5854</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.19973397447809199</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0.13413689552640201</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.166062317795724</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.19374667271354301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.24928005357934499</v>
       </c>
@@ -706,22 +931,40 @@
       <c r="D12">
         <v>4.53307016959896E-2</v>
       </c>
-      <c r="F12">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>0.15097045000991599</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>0.15097045000991599</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4134</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.1963496852322297E-2</v>
       </c>
@@ -734,22 +977,40 @@
       <c r="D13">
         <v>0.19099630170553999</v>
       </c>
-      <c r="F13">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>-0.107874154409265</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>1317</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>0.13170000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.19460372065259901</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.122796429666954</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.118340466256526</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.22841884280153099</v>
       </c>
@@ -762,22 +1023,40 @@
       <c r="D14">
         <v>6.9335817731803195E-2</v>
       </c>
-      <c r="F14">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>-3.12805353409491E-2</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>1178</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>0.1178</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.197642968880204</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0.13280842866452</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.13048224909613901</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0.19585211974375799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7.66803165095018E-2</v>
       </c>
@@ -790,22 +1069,40 @@
       <c r="D15">
         <v>0.169255608946937</v>
       </c>
-      <c r="F15">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>-0.148152889746785</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>6414</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.193356529373409</v>
       </c>
@@ -818,22 +1115,40 @@
       <c r="D16">
         <v>0.10739787186361099</v>
       </c>
-      <c r="F16">
+      <c r="E16">
+        <v>7.3909527888764107E-2</v>
+      </c>
+      <c r="G16">
         <v>5.2965784734730903E-2</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>5.2965784734730903E-2</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3229</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q16" s="3">
+        <v>7.3909527888764107E-2</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2.5736366936050602E-2</v>
       </c>
@@ -846,22 +1161,40 @@
       <c r="D17">
         <v>0.107234240830236</v>
       </c>
-      <c r="F17">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>0.13403838062502199</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>0.13403838062502199</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>4318</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.23575166886259999</v>
       </c>
@@ -874,22 +1207,40 @@
       <c r="D18">
         <v>0.160351151432364</v>
       </c>
-      <c r="F18">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>7.9212237878885303E-2</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>7.9212237878885303E-2</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>3190</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0.196545177200075</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0.145305728639579</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0.144545755323645</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0.194722392901088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.151716342283607</v>
       </c>
@@ -902,22 +1253,40 @@
       <c r="D19">
         <v>6.6003392935521404E-2</v>
       </c>
-      <c r="F19">
+      <c r="E19">
+        <v>0.182050871240312</v>
+      </c>
+      <c r="G19">
         <v>0.161131469755006</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>0.161131469755006</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2228</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q19" s="3">
+        <v>0.182050871240312</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5.94030339658249E-2</v>
       </c>
@@ -930,22 +1299,40 @@
       <c r="D20">
         <v>0.157376749334735</v>
       </c>
-      <c r="F20">
+      <c r="E20">
+        <v>0.19023318866035199</v>
+      </c>
+      <c r="G20">
         <v>7.2957280665273405E-2</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>7.2957280665273405E-2</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>5027</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q20" s="3">
+        <v>0.19023318866035199</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1.3341180233637E-2</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0.13525898795354199</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0.13733928740142601</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0.16493406637518801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.112262939851171</v>
       </c>
@@ -958,22 +1345,40 @@
       <c r="D21">
         <v>0.24760435291293201</v>
       </c>
-      <c r="F21">
+      <c r="E21">
+        <v>0.199850347670949</v>
+      </c>
+      <c r="G21">
         <v>9.7063119133359604E-2</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>9.7063119133359604E-2</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4967</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q21" s="3">
+        <v>0.199850347670949</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>6.6856416890674397E-2</v>
+      </c>
+      <c r="T21" s="3">
+        <v>4.3255016694931099E-2</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7.2934521004869204E-2</v>
       </c>
@@ -986,22 +1391,40 @@
       <c r="D22">
         <v>0.108343198256611</v>
       </c>
-      <c r="F22">
+      <c r="E22">
+        <v>0.19959388477755499</v>
+      </c>
+      <c r="G22">
         <v>-3.4086926773888401E-2</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>1362</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f t="shared" si="1"/>
         <v>0.13619999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q22" s="3">
+        <v>0.19959388477755499</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>SUM(A1:A22)</f>
         <v>3.4425112530811797</v>
@@ -1018,26 +1441,54 @@
         <f>SUM(D1:D22)</f>
         <v>2.57270576573208</v>
       </c>
-      <c r="G23">
-        <f>SUM(G1:G22)</f>
+      <c r="E23">
+        <f>SUM(E1:E22)</f>
+        <v>0.99999999999999711</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H1:H22)</f>
         <v>1.5961950962242817</v>
       </c>
-      <c r="J23">
-        <f>SUM(J1:J22)</f>
+      <c r="K23">
+        <f>SUM(K1:K22)</f>
         <v>0.50059999999999993</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <f>SUM(Q1:Q22)</f>
+        <v>0.99999999999999711</v>
+      </c>
+      <c r="R23" s="2">
+        <f>SUM(R1:R22)</f>
+        <v>0.999999999999996</v>
+      </c>
+      <c r="S23" s="2">
+        <f>SUM(S1:S22)</f>
+        <v>0.99999999999999534</v>
+      </c>
+      <c r="T23" s="2">
+        <f>SUM(T1:T22)</f>
+        <v>0.99999999999999523</v>
+      </c>
+      <c r="U23" s="2">
+        <f>SUM(U1:U22)</f>
+        <v>0.999999999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V18" sqref="A18:V18"/>
+      <selection activeCell="A24" sqref="A24:V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,6 +2579,346 @@
       </c>
       <c r="V18">
         <v>1362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.15436217976206501</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>7.3909527888764107E-2</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.182050871240312</v>
+      </c>
+      <c r="T20">
+        <v>0.19023318866035199</v>
+      </c>
+      <c r="U20">
+        <v>0.199850347670949</v>
+      </c>
+      <c r="V20">
+        <v>0.19959388477755499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.198132978555389</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.19973397447809199</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0.19460372065259901</v>
+      </c>
+      <c r="N21">
+        <v>0.197642968880204</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.196545177200075</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>1.3341180233637E-2</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.126223739666767</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0.13661337299155701</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.13413689552640201</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0.122796429666954</v>
+      </c>
+      <c r="N22">
+        <v>0.13280842866452</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.145305728639579</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0.13525898795354199</v>
+      </c>
+      <c r="U22">
+        <v>6.6856416890674397E-2</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.12336153444004699</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0.13661337299155701</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0.166062317795724</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.118340466256526</v>
+      </c>
+      <c r="N23">
+        <v>0.13048224909613901</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.144545755323645</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0.13733928740142601</v>
+      </c>
+      <c r="U23">
+        <v>4.3255016694931099E-2</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.116526223997275</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0.13421852426914499</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0.19374667271354301</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.19585211974375799</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.194722392901088</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0.16493406637518801</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
